--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aaron\College\CIS_5650\Project2-Stream-Compaction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FE50D7-53BA-496E-BEF6-2D6FB572386D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8558830D-E45C-4625-82C8-3B5290161B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="3" xr2:uid="{D6997968-E39F-482B-956E-E2FDAE7BCDC8}"/>
   </bookViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aaron\College\CIS_5650\Project2-Stream-Compaction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8558830D-E45C-4625-82C8-3B5290161B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDDA057-CE8D-4674-A156-4015B6593274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="3" xr2:uid="{D6997968-E39F-482B-956E-E2FDAE7BCDC8}"/>
+    <workbookView xWindow="12420" yWindow="384" windowWidth="28416" windowHeight="15840" activeTab="2" xr2:uid="{D6997968-E39F-482B-956E-E2FDAE7BCDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="block sizes" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="105" r:id="rId5"/>
+    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="11" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="24">
   <si>
     <t>cpu scan, non-power of two</t>
   </si>
@@ -109,6 +110,12 @@
   <si>
     <t>cpu scan, power-of-two</t>
   </si>
+  <si>
+    <t>work-efficient scan shared memory, power-of-two</t>
+  </si>
+  <si>
+    <t>work-efficient scan shared memory, non-power-of-two</t>
+  </si>
 </sst>
 </file>
 
@@ -131,12 +138,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,22 +164,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3544,6 +3554,9 @@
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3600,6 +3613,9 @@
       <c:pivotFmt>
         <c:idx val="13"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3656,6 +3672,9 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3712,6 +3731,9 @@
       <c:pivotFmt>
         <c:idx val="15"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4654,6 +4676,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4710,6 +4735,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4766,6 +4794,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4878,6 +4909,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4990,6 +5024,9 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5102,6 +5139,9 @@
       <c:pivotFmt>
         <c:idx val="8"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5158,6 +5198,9 @@
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5214,6 +5257,9 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5323,6 +5369,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -5718,6 +5820,104 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-38CD-48DD-8AA7-D7BEA5F0CA24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scan!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>work-efficient scan shared memory, power-of-two</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>scan!$A$5:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>536870912</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scan!$F$5:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.0202999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5635733333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1847273333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7158933333333328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0486666666666675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.233699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.534366666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.608966666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D546-43AA-8738-D4B51308D881}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7816,7 +8016,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aaron Tian" refreshedDate="45912.904646296294" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="117" xr:uid="{4DCD0BD5-E41A-4FA2-8907-AE7B1874E775}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aaron Tian" refreshedDate="45913.661232407409" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="117" xr:uid="{4DCD0BD5-E41A-4FA2-8907-AE7B1874E775}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G118" sheet="data"/>
   </cacheSource>
@@ -7876,6 +8076,69 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aaron Tian" refreshedDate="45913.661552430553" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="133" xr:uid="{6261AE94-B778-4E6B-9A9C-E746EAC52F14}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G134" sheet="data"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Test Name" numFmtId="0">
+      <sharedItems count="14">
+        <s v="cpu scan, power-of-two"/>
+        <s v="cpu scan, non-power of two"/>
+        <s v="naive scan, power-of-two"/>
+        <s v="naive scan, non-power-of-two"/>
+        <s v="work-efficient scan, power-of-two"/>
+        <s v="work-efficient scan, non-power-of-two"/>
+        <s v="thrust scan, power-of-two"/>
+        <s v="thrust scan, non-power-of-two"/>
+        <s v="cpu compact with scan"/>
+        <s v="cpu compact without scan"/>
+        <s v="work-efficient compact, power-of-two"/>
+        <s v="work-efficient compact, non-power-of-two"/>
+        <s v="work-efficient scan shared memory, power-of-two"/>
+        <s v="work-efficient scan shared memory, non-power-of-two"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Number of 32 Bit Integers" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4194304" maxValue="536870912" count="8">
+        <n v="536870912"/>
+        <n v="268435456"/>
+        <n v="134217728"/>
+        <n v="67108864"/>
+        <n v="33554432"/>
+        <n v="16777216"/>
+        <n v="8388608"/>
+        <n v="4194304"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Block Size" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="128" maxValue="256" count="2">
+        <n v="256"/>
+        <n v="128"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Run1" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.34300799999999998" maxValue="1855.43"/>
+    </cacheField>
+    <cacheField name="Run2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.27379199999999998" maxValue="1912.85"/>
+    </cacheField>
+    <cacheField name="Run3" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.251776" maxValue="1873.52"/>
+    </cacheField>
+    <cacheField name="Average Runtime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.28952533333333336" maxValue="1868.3966666666668"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="117">
   <r>
@@ -8934,8 +9197,1210 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="133">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="696.57"/>
+    <n v="724.56399999999996"/>
+    <n v="675.34299999999996"/>
+    <n v="698.82566666666662"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="674.81200000000001"/>
+    <n v="728.9"/>
+    <n v="667.69200000000001"/>
+    <n v="690.46799999999996"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="237.83199999999999"/>
+    <n v="235.41900000000001"/>
+    <n v="235.31"/>
+    <n v="236.18699999999998"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="237.62100000000001"/>
+    <n v="235.02099999999999"/>
+    <n v="236.357"/>
+    <n v="236.333"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="288.04000000000002"/>
+    <n v="285.57100000000003"/>
+    <n v="288.14999999999998"/>
+    <n v="287.25366666666667"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="289.33800000000002"/>
+    <n v="285.94900000000001"/>
+    <n v="285.59399999999999"/>
+    <n v="286.96033333333338"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="8.0736000000000008"/>
+    <n v="8.2001600000000003"/>
+    <n v="8.75718"/>
+    <n v="8.3436466666666664"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.8081899999999997"/>
+    <n v="7.8369"/>
+    <n v="7.7540800000000001"/>
+    <n v="7.7997233333333327"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1020.36"/>
+    <n v="1005.61"/>
+    <n v="965.04499999999996"/>
+    <n v="997.005"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="992.29899999999998"/>
+    <n v="1008.25"/>
+    <n v="959.149"/>
+    <n v="986.56599999999992"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1724.54"/>
+    <n v="1912.85"/>
+    <n v="1828.28"/>
+    <n v="1821.89"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="314.35500000000002"/>
+    <n v="313.39"/>
+    <n v="313.58800000000002"/>
+    <n v="313.77766666666668"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="316.89699999999999"/>
+    <n v="314.541"/>
+    <n v="313.39600000000002"/>
+    <n v="314.94466666666671"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="738.84799999999996"/>
+    <n v="716.73199999999997"/>
+    <n v="688.05600000000004"/>
+    <n v="714.54533333333336"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="758.255"/>
+    <n v="755.49800000000005"/>
+    <n v="721.85400000000004"/>
+    <n v="745.20233333333329"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="238.52600000000001"/>
+    <n v="240.09"/>
+    <n v="238.691"/>
+    <n v="239.10233333333335"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="247.54599999999999"/>
+    <n v="239.07300000000001"/>
+    <n v="236.92599999999999"/>
+    <n v="241.1816666666667"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="288.33600000000001"/>
+    <n v="287.76"/>
+    <n v="385.51299999999998"/>
+    <n v="320.53633333333329"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="291.517"/>
+    <n v="287.40100000000001"/>
+    <n v="285.11900000000003"/>
+    <n v="288.01233333333334"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="8.0672300000000003"/>
+    <n v="8.4652499999999993"/>
+    <n v="8.3337599999999998"/>
+    <n v="8.2887466666666665"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="7.7374700000000001"/>
+    <n v="7.7531499999999998"/>
+    <n v="7.7671400000000004"/>
+    <n v="7.7525866666666667"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1035.57"/>
+    <n v="1023.99"/>
+    <n v="993.89499999999998"/>
+    <n v="1017.8183333333333"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1022.33"/>
+    <n v="993.101"/>
+    <n v="980.81600000000003"/>
+    <n v="998.74900000000014"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1855.43"/>
+    <n v="1876.24"/>
+    <n v="1873.52"/>
+    <n v="1868.3966666666668"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="313.666"/>
+    <n v="315.79899999999998"/>
+    <n v="313.57900000000001"/>
+    <n v="314.34799999999996"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="313.65199999999999"/>
+    <n v="316.88"/>
+    <n v="313.18200000000002"/>
+    <n v="314.57133333333331"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="344.733"/>
+    <n v="371.851"/>
+    <n v="359.60700000000003"/>
+    <n v="358.73033333333336"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="340.13400000000001"/>
+    <n v="351.79300000000001"/>
+    <n v="372.27300000000002"/>
+    <n v="354.73333333333335"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="112.86799999999999"/>
+    <n v="112.346"/>
+    <n v="112.48399999999999"/>
+    <n v="112.56599999999999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="113.68600000000001"/>
+    <n v="113.139"/>
+    <n v="112.379"/>
+    <n v="113.068"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="139.59299999999999"/>
+    <n v="138.71600000000001"/>
+    <n v="138.53899999999999"/>
+    <n v="138.94933333333333"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="136.91499999999999"/>
+    <n v="138.762"/>
+    <n v="140.59299999999999"/>
+    <n v="138.75666666666666"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.5401300000000004"/>
+    <n v="4.4932499999999997"/>
+    <n v="4.7757800000000001"/>
+    <n v="4.6030533333333343"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3.9299499999999998"/>
+    <n v="3.9765100000000002"/>
+    <n v="4.0196500000000004"/>
+    <n v="3.9753700000000003"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="474.67200000000003"/>
+    <n v="504.60300000000001"/>
+    <n v="500.47399999999999"/>
+    <n v="493.24966666666666"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="476.68"/>
+    <n v="502.25799999999998"/>
+    <n v="543.14499999999998"/>
+    <n v="507.36100000000005"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="895.93299999999999"/>
+    <n v="940.02"/>
+    <n v="943.64200000000005"/>
+    <n v="926.53166666666675"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="151.67400000000001"/>
+    <n v="153.393"/>
+    <n v="153.333"/>
+    <n v="152.79999999999998"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="151.85599999999999"/>
+    <n v="153.06"/>
+    <n v="153.82300000000001"/>
+    <n v="152.91300000000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="173.62"/>
+    <n v="180.74100000000001"/>
+    <n v="184.99600000000001"/>
+    <n v="179.78566666666666"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="175.655"/>
+    <n v="210.32499999999999"/>
+    <n v="173.649"/>
+    <n v="186.54300000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="65.292400000000001"/>
+    <n v="54.696599999999997"/>
+    <n v="53.223799999999997"/>
+    <n v="57.737600000000008"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="57.290100000000002"/>
+    <n v="57.625399999999999"/>
+    <n v="53.953499999999998"/>
+    <n v="56.289666666666669"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="79.455100000000002"/>
+    <n v="67.680300000000003"/>
+    <n v="80.238"/>
+    <n v="75.791133333333335"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="78.302499999999995"/>
+    <n v="67.525499999999994"/>
+    <n v="73.549000000000007"/>
+    <n v="73.12566666666666"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3.17062"/>
+    <n v="2.6010599999999999"/>
+    <n v="2.7363499999999998"/>
+    <n v="2.8360099999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2.1581399999999999"/>
+    <n v="2.1630699999999998"/>
+    <n v="2.2829100000000002"/>
+    <n v="2.2013733333333332"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="252.14400000000001"/>
+    <n v="256.642"/>
+    <n v="256.76400000000001"/>
+    <n v="255.18333333333331"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="240.81100000000001"/>
+    <n v="271.38600000000002"/>
+    <n v="261.44"/>
+    <n v="257.87899999999996"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="459.35300000000001"/>
+    <n v="461.2"/>
+    <n v="811.16600000000005"/>
+    <n v="577.23966666666672"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="74.768100000000004"/>
+    <n v="74.827399999999997"/>
+    <n v="74.792000000000002"/>
+    <n v="74.795833333333334"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="74.742699999999999"/>
+    <n v="77.304500000000004"/>
+    <n v="75.779799999999994"/>
+    <n v="75.942333333333337"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="88.011200000000002"/>
+    <n v="84.476100000000002"/>
+    <n v="88.740200000000002"/>
+    <n v="87.075833333333335"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="85.188699999999997"/>
+    <n v="87.455699999999993"/>
+    <n v="92.749899999999997"/>
+    <n v="88.464766666666662"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="26.8005"/>
+    <n v="25.712399999999999"/>
+    <n v="27.268000000000001"/>
+    <n v="26.593633333333333"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="27.6891"/>
+    <n v="29.858799999999999"/>
+    <n v="30.924399999999999"/>
+    <n v="29.490766666666662"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="34.3872"/>
+    <n v="38.757899999999999"/>
+    <n v="37.549999999999997"/>
+    <n v="36.898366666666668"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="33.329000000000001"/>
+    <n v="35.613500000000002"/>
+    <n v="35.518799999999999"/>
+    <n v="34.820433333333334"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.5428500000000001"/>
+    <n v="1.85555"/>
+    <n v="1.46208"/>
+    <n v="1.62016"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.2013100000000001"/>
+    <n v="1.2104600000000001"/>
+    <n v="1.52013"/>
+    <n v="1.3106333333333333"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="131.47499999999999"/>
+    <n v="120.911"/>
+    <n v="123.827"/>
+    <n v="125.40433333333333"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="134.142"/>
+    <n v="143.101"/>
+    <n v="121.8779"/>
+    <n v="133.0403"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="253.245"/>
+    <n v="225.43"/>
+    <n v="241.536"/>
+    <n v="240.07033333333334"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="41.313499999999998"/>
+    <n v="37.575600000000001"/>
+    <n v="37.0623"/>
+    <n v="38.650466666666667"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="39.4861"/>
+    <n v="37.2181"/>
+    <n v="36.413200000000003"/>
+    <n v="37.705800000000004"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="44.743200000000002"/>
+    <n v="42.232700000000001"/>
+    <n v="48.249099999999999"/>
+    <n v="45.074999999999996"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="48.689"/>
+    <n v="47.8934"/>
+    <n v="47.4694"/>
+    <n v="48.017266666666671"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="12.8672"/>
+    <n v="12.352"/>
+    <n v="12.157500000000001"/>
+    <n v="12.4589"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="12.597099999999999"/>
+    <n v="12.734999999999999"/>
+    <n v="13.138"/>
+    <n v="12.823366666666665"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="16.7469"/>
+    <n v="17.254300000000001"/>
+    <n v="16.081399999999999"/>
+    <n v="16.694199999999999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="16.429099999999998"/>
+    <n v="16.9682"/>
+    <n v="20.813300000000002"/>
+    <n v="18.0702"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="1.03837"/>
+    <n v="1.8721300000000001"/>
+    <n v="1.02925"/>
+    <n v="1.31325"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.69110400000000005"/>
+    <n v="0.72604800000000003"/>
+    <n v="1.5459799999999999"/>
+    <n v="0.98771066666666663"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="62.545299999999997"/>
+    <n v="60.391500000000001"/>
+    <n v="62.305900000000001"/>
+    <n v="61.747566666666671"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="61.819600000000001"/>
+    <n v="63.866500000000002"/>
+    <n v="59.7879"/>
+    <n v="61.824666666666673"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="122.98399999999999"/>
+    <n v="116.18300000000001"/>
+    <n v="121.813"/>
+    <n v="120.32666666666667"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="22.383400000000002"/>
+    <n v="18.783300000000001"/>
+    <n v="19.711600000000001"/>
+    <n v="20.292766666666669"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="20.5533"/>
+    <n v="19.424900000000001"/>
+    <n v="19.332799999999999"/>
+    <n v="19.770333333333333"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="21.064800000000002"/>
+    <n v="21.218599999999999"/>
+    <n v="22.0303"/>
+    <n v="21.437899999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="23.1938"/>
+    <n v="21.3048"/>
+    <n v="22.904800000000002"/>
+    <n v="22.4678"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="5.8529900000000001"/>
+    <n v="5.9817600000000004"/>
+    <n v="6.7112600000000002"/>
+    <n v="6.1820033333333333"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="5.7380500000000003"/>
+    <n v="6.3842600000000003"/>
+    <n v="6.3578200000000002"/>
+    <n v="6.1600433333333342"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="8.6571499999999997"/>
+    <n v="7.9258600000000001"/>
+    <n v="7.8821399999999997"/>
+    <n v="8.155050000000001"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="8.0501400000000007"/>
+    <n v="7.7997100000000001"/>
+    <n v="7.8082599999999998"/>
+    <n v="7.8860366666666666"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="0.75231999999999999"/>
+    <n v="1.0031399999999999"/>
+    <n v="1.7470699999999999"/>
+    <n v="1.1675099999999998"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="0.442272"/>
+    <n v="0.46550399999999997"/>
+    <n v="0.60451200000000005"/>
+    <n v="0.50409599999999999"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="31.1313"/>
+    <n v="40.600900000000003"/>
+    <n v="31.145099999999999"/>
+    <n v="34.292433333333335"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="32.819800000000001"/>
+    <n v="30.776599999999998"/>
+    <n v="32.294800000000002"/>
+    <n v="31.963733333333334"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="60.598199999999999"/>
+    <n v="56.396299999999997"/>
+    <n v="63.150399999999998"/>
+    <n v="60.04829999999999"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="9.1757100000000005"/>
+    <n v="9.9581099999999996"/>
+    <n v="9.2425300000000004"/>
+    <n v="9.4587833333333347"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="9.3682599999999994"/>
+    <n v="9.2540800000000001"/>
+    <n v="9.3149800000000003"/>
+    <n v="9.3124400000000005"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="10.658300000000001"/>
+    <n v="11.3908"/>
+    <n v="10.6622"/>
+    <n v="10.903766666666668"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="10.6036"/>
+    <n v="10.5626"/>
+    <n v="11.001200000000001"/>
+    <n v="10.722466666666667"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="2.7547199999999998"/>
+    <n v="3.7073"/>
+    <n v="2.7296999999999998"/>
+    <n v="3.0639066666666666"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="2.67197"/>
+    <n v="2.6583700000000001"/>
+    <n v="3.0826199999999999"/>
+    <n v="2.8043200000000001"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="4.4716500000000003"/>
+    <n v="3.6518700000000002"/>
+    <n v="4.1638400000000004"/>
+    <n v="4.0957866666666671"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="4.3433000000000002"/>
+    <n v="3.6491500000000001"/>
+    <n v="3.7757100000000001"/>
+    <n v="3.92272"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="0.73030399999999995"/>
+    <n v="0.67779199999999995"/>
+    <n v="0.53715199999999996"/>
+    <n v="0.64841599999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="0.41222399999999998"/>
+    <n v="0.39868799999999999"/>
+    <n v="0.34992000000000001"/>
+    <n v="0.38694400000000001"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="15.491400000000001"/>
+    <n v="15.2209"/>
+    <n v="15.229699999999999"/>
+    <n v="15.314"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="16.107199999999999"/>
+    <n v="15.118499999999999"/>
+    <n v="16.645800000000001"/>
+    <n v="15.957166666666666"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="28.639600000000002"/>
+    <n v="28.360099999999999"/>
+    <n v="28.443899999999999"/>
+    <n v="28.481200000000001"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="5.1688599999999996"/>
+    <n v="3.8801600000000001"/>
+    <n v="3.8755199999999999"/>
+    <n v="4.3081799999999992"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="5.4228500000000004"/>
+    <n v="7.0805800000000003"/>
+    <n v="4.0874899999999998"/>
+    <n v="5.5303066666666671"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="7.3673000000000002"/>
+    <n v="5.5369999999999999"/>
+    <n v="5.2797999999999998"/>
+    <n v="6.0613666666666672"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="5.6212999999999997"/>
+    <n v="5.5716000000000001"/>
+    <n v="5.3522999999999996"/>
+    <n v="5.5150666666666668"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="0.859456"/>
+    <n v="0.69302399999999997"/>
+    <n v="0.757216"/>
+    <n v="0.76989866666666673"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="0.57993600000000001"/>
+    <n v="0.58096000000000003"/>
+    <n v="0.58902399999999999"/>
+    <n v="0.58330666666666675"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="0.77123200000000003"/>
+    <n v="0.79135999999999995"/>
+    <n v="0.84630399999999995"/>
+    <n v="0.80296533333333331"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="0.73417600000000005"/>
+    <n v="0.76592000000000005"/>
+    <n v="0.76239999999999997"/>
+    <n v="0.75416533333333335"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="0.59449600000000002"/>
+    <n v="1.1497599999999999"/>
+    <n v="1.2593000000000001"/>
+    <n v="1.0011853333333334"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="0.34300799999999998"/>
+    <n v="0.27379199999999998"/>
+    <n v="0.251776"/>
+    <n v="0.28952533333333336"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="10.538600000000001"/>
+    <n v="8.4815000000000005"/>
+    <n v="9.7396999999999991"/>
+    <n v="9.5865999999999989"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="7.5968999999999998"/>
+    <n v="7.6729000000000003"/>
+    <n v="8.1085999999999991"/>
+    <n v="7.7927999999999997"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="14.4945"/>
+    <n v="14.151199999999999"/>
+    <n v="14.9351"/>
+    <n v="14.526933333333332"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="1.33395"/>
+    <n v="0.80656000000000005"/>
+    <n v="1.0185"/>
+    <n v="1.0530033333333333"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="0.94476800000000005"/>
+    <n v="0.80963200000000002"/>
+    <n v="0.80553600000000003"/>
+    <n v="0.85331199999999996"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="41.707299999999996"/>
+    <n v="45.2637"/>
+    <n v="46.855899999999998"/>
+    <n v="44.608966666666667"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="42.127800000000001"/>
+    <n v="47.643599999999999"/>
+    <n v="42.092100000000002"/>
+    <n v="43.954499999999996"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="26.037099999999999"/>
+    <n v="23.4237"/>
+    <n v="21.142299999999999"/>
+    <n v="23.534366666666667"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="22.1967"/>
+    <n v="22.496600000000001"/>
+    <n v="21.086300000000001"/>
+    <n v="21.926533333333335"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="12.881600000000001"/>
+    <n v="11.6974"/>
+    <n v="12.1221"/>
+    <n v="12.233699999999999"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="10.85"/>
+    <n v="10.7867"/>
+    <n v="10.9915"/>
+    <n v="10.876066666666667"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="11.497999999999999"/>
+    <n v="7.83955"/>
+    <n v="7.8084499999999997"/>
+    <n v="9.0486666666666675"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="5.7131499999999997"/>
+    <n v="5.7570600000000001"/>
+    <n v="8.3558400000000006"/>
+    <n v="6.6086833333333344"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="6.2834599999999998"/>
+    <n v="3.7739799999999999"/>
+    <n v="4.0902399999999997"/>
+    <n v="4.7158933333333328"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="3.1608999999999998"/>
+    <n v="2.9136000000000002"/>
+    <n v="3.4645800000000002"/>
+    <n v="3.1796933333333333"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="2.4487000000000001"/>
+    <n v="4.2395800000000001"/>
+    <n v="2.8659020000000002"/>
+    <n v="3.1847273333333335"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="1.57578"/>
+    <n v="1.54253"/>
+    <n v="1.65872"/>
+    <n v="1.5923433333333332"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="1.60432"/>
+    <n v="1.51603"/>
+    <n v="1.57037"/>
+    <n v="1.5635733333333335"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="0.96812799999999999"/>
+    <n v="1.0662700000000001"/>
+    <n v="1.02979"/>
+    <n v="1.021396"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="1.28714"/>
+    <n v="3.6091799999999998"/>
+    <n v="1.1645799999999999"/>
+    <n v="2.0202999999999998"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="0.57564800000000005"/>
+    <n v="0.744896"/>
+    <n v="0.65404799999999996"/>
+    <n v="0.6581973333333333"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B08FF693-7DD4-4894-912F-DAC3BD30711E}" name="PivotTable15" cacheId="105" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B08FF693-7DD4-4894-912F-DAC3BD30711E}" name="PivotTable15" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:M6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -9338,7 +10803,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7841A04B-B89C-4F9B-927F-44D7404A0A5A}" name="PivotTable15" cacheId="105" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7841A04B-B89C-4F9B-927F-44D7404A0A5A}" name="PivotTable15" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:D12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -9672,11 +11137,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1897311F-5FCA-4D29-8D03-E3F06FE953C4}" name="PivotTable15" cacheId="105" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:E12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9AAAF03-4B09-4FB0-88CC-4881766ECFC6}" name="PivotTable15" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:F12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
-      <items count="12">
+      <items count="14">
         <item h="1" x="8"/>
         <item h="1" x="9"/>
         <item h="1" x="1"/>
@@ -9689,6 +11154,8 @@
         <item h="1" x="10"/>
         <item h="1" x="5"/>
         <item x="4"/>
+        <item x="12"/>
+        <item h="1" x="13"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" numFmtId="1" showAll="0" defaultSubtotal="0">
@@ -9746,7 +11213,7 @@
   <colFields count="1">
     <field x="0"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="5">
     <i>
       <x v="3"/>
     </i>
@@ -9759,6 +11226,9 @@
     <i>
       <x v="11"/>
     </i>
+    <i>
+      <x v="12"/>
+    </i>
   </colItems>
   <pageFields count="1">
     <pageField fld="2" item="1" hier="-1"/>
@@ -9766,7 +11236,7 @@
   <dataFields count="1">
     <dataField name="Avg Runtime" fld="6" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
-  <chartFormats count="12">
+  <chartFormats count="13">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -9907,6 +11377,18 @@
           </reference>
           <reference field="0" count="1" selected="0">
             <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="12"/>
           </reference>
         </references>
       </pivotArea>
@@ -10266,23 +11748,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="4">
         <v>536870912</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
@@ -10323,84 +11805,84 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="4">
         <v>128</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="7">
         <v>1443.1075000000001</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>998.74900000000014</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>745.20233333333329</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <v>714.54533333333336</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="7">
         <v>241.1816666666667</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="7">
         <v>239.10233333333335</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="7">
         <v>7.7525866666666667</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="7">
         <v>8.2887466666666665</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="7">
         <v>314.57133333333331</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="7">
         <v>314.34799999999996</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="7">
         <v>288.01233333333334</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="7">
         <v>320.53633333333329</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="4">
         <v>256</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="7">
         <v>1409.4475</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>986.56599999999992</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>690.46799999999996</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
         <v>698.82566666666662</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="7">
         <v>236.333</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="7">
         <v>236.18699999999998</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="7">
         <v>7.7997233333333327</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="7">
         <v>8.3436466666666664</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="7">
         <v>314.94466666666671</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="7">
         <v>313.77766666666668</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="7">
         <v>286.96033333333338</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="7">
         <v>287.25366666666667</v>
       </c>
     </row>
@@ -10437,23 +11919,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="4">
         <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
@@ -10467,114 +11949,114 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="4">
         <v>4194304</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="7">
         <v>12.056766666666665</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>7.7927999999999997</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>1.0530033333333333</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="4">
         <v>8388608</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="7">
         <v>21.897600000000001</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>15.957166666666666</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>4.3081799999999992</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="4">
         <v>16777216</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="7">
         <v>47.170366666666666</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>31.963733333333334</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <v>9.4587833333333347</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="4">
         <v>33554432</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="7">
         <v>91.037116666666662</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>61.824666666666673</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="7">
         <v>20.292766666666669</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="4">
         <v>67108864</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="7">
         <v>182.73733333333334</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="7">
         <v>133.0403</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="7">
         <v>38.650466666666667</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="4">
         <v>134217728</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="7">
         <v>416.2115</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="7">
         <v>257.87899999999996</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="7">
         <v>74.795833333333334</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="4">
         <v>268435456</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="7">
         <v>709.89066666666668</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="7">
         <v>507.36100000000005</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="7">
         <v>152.79999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="4">
         <v>536870912</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="7">
         <v>1409.4475</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="7">
         <v>986.56599999999992</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="7">
         <v>313.77766666666668</v>
       </c>
     </row>
@@ -10586,20 +12068,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337051A0-667B-49AB-AF9F-EE7234F1BB9E}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
@@ -10610,24 +12092,24 @@
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="4">
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
@@ -10642,141 +12124,168 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>4194304</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="7">
         <v>6.0613666666666672</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>0.76989866666666673</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>1.0011853333333334</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <v>0.80296533333333331</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="F5" s="7">
+        <v>2.0202999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>8388608</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="7">
         <v>10.903766666666668</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>3.0639066666666666</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>0.64841599999999999</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
         <v>4.0957866666666671</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="F6" s="7">
+        <v>1.5635733333333335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>16777216</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="7">
         <v>21.437899999999999</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>6.1820033333333333</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <v>1.1675099999999998</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
         <v>8.155050000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="F7" s="7">
+        <v>3.1847273333333335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>33554432</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="7">
         <v>45.074999999999996</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>12.4589</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="7">
         <v>1.31325</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="7">
         <v>16.694199999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="F8" s="7">
+        <v>4.7158933333333328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>67108864</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="7">
         <v>87.075833333333335</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="7">
         <v>26.593633333333333</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="7">
         <v>1.62016</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="7">
         <v>36.898366666666668</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="F9" s="7">
+        <v>9.0486666666666675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>134217728</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="7">
         <v>179.78566666666666</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="7">
         <v>57.737600000000008</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="7">
         <v>2.8360099999999999</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="7">
         <v>75.791133333333335</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="F10" s="7">
+        <v>12.233699999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>268435456</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="7">
         <v>358.73033333333336</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="7">
         <v>112.56599999999999</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="7">
         <v>4.6030533333333343</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="7">
         <v>138.94933333333333</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="F11" s="7">
+        <v>23.534366666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>536870912</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="7">
         <v>698.82566666666662</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="7">
         <v>236.18699999999998</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="7">
         <v>8.3436466666666664</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="7">
         <v>287.25366666666667</v>
+      </c>
+      <c r="F12" s="7">
+        <v>44.608966666666667</v>
       </c>
     </row>
   </sheetData>
@@ -10787,18 +12296,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7923A28C-9BC4-451C-8BAF-2D36372056DA}">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4" customWidth="1"/>
-    <col min="4" max="6" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10806,10 +12314,10 @@
       <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -10826,7 +12334,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="2">
@@ -10851,11 +12359,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B28" si="0">POWER(2,29)</f>
+        <f t="shared" ref="B3:B27" si="0">POWER(2,29)</f>
         <v>536870912</v>
       </c>
       <c r="C3" s="2">
@@ -10876,7 +12384,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2">
@@ -10901,7 +12409,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2">
@@ -10926,7 +12434,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
@@ -10951,7 +12459,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2">
@@ -10976,23 +12484,23 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>536870912</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="2">
         <v>256</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>8.0736000000000008</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8">
         <v>8.2001600000000003</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8">
         <v>8.75718</v>
       </c>
       <c r="G8">
@@ -11001,23 +12509,23 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>536870912</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="2">
         <v>256</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9">
         <v>7.8081899999999997</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9">
         <v>7.8369</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9">
         <v>7.7540800000000001</v>
       </c>
       <c r="G9">
@@ -11026,7 +12534,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2">
@@ -11051,7 +12559,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2">
@@ -11076,7 +12584,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
@@ -11101,7 +12609,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2">
@@ -11126,7 +12634,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2">
@@ -11151,14 +12659,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>536870912</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="2">
         <v>128</v>
       </c>
       <c r="D15">
@@ -11176,14 +12684,14 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>536870912</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="2">
         <v>128</v>
       </c>
       <c r="D16">
@@ -11201,14 +12709,14 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>536870912</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="2">
         <v>128</v>
       </c>
       <c r="D17">
@@ -11226,14 +12734,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>536870912</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="2">
         <v>128</v>
       </c>
       <c r="D18">
@@ -11251,14 +12759,14 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>536870912</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="2">
         <v>128</v>
       </c>
       <c r="D19">
@@ -11276,14 +12784,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>536870912</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="2">
         <v>128</v>
       </c>
       <c r="D20">
@@ -11301,23 +12809,23 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>536870912</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="2">
         <v>128</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21">
         <v>8.0672300000000003</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21">
         <v>8.4652499999999993</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21">
         <v>8.3337599999999998</v>
       </c>
       <c r="G21">
@@ -11326,23 +12834,23 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>536870912</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="2">
         <v>128</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22">
         <v>7.7374700000000001</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22">
         <v>7.7531499999999998</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22">
         <v>7.7671400000000004</v>
       </c>
       <c r="G22">
@@ -11351,14 +12859,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>536870912</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="2">
         <v>128</v>
       </c>
       <c r="D23">
@@ -11376,14 +12884,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>536870912</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="2">
         <v>128</v>
       </c>
       <c r="D24">
@@ -11401,14 +12909,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>536870912</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="2">
         <v>128</v>
       </c>
       <c r="D25">
@@ -11426,14 +12934,14 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>536870912</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="2">
         <v>128</v>
       </c>
       <c r="D26">
@@ -11451,14 +12959,14 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>536870912</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="2">
         <v>128</v>
       </c>
       <c r="D27">
@@ -11476,14 +12984,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="2">
         <f>POWER(2,28)</f>
         <v>268435456</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="2">
         <v>256</v>
       </c>
       <c r="D28">
@@ -11501,14 +13009,14 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" ref="B29:B40" si="2">POWER(2,28)</f>
         <v>268435456</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="2">
         <v>256</v>
       </c>
       <c r="D29">
@@ -11526,14 +13034,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" si="2"/>
         <v>268435456</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="2">
         <v>256</v>
       </c>
       <c r="D30">
@@ -11551,14 +13059,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" si="2"/>
         <v>268435456</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="2">
         <v>256</v>
       </c>
       <c r="D31">
@@ -11576,14 +13084,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" si="2"/>
         <v>268435456</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="2">
         <v>256</v>
       </c>
       <c r="D32">
@@ -11601,14 +13109,14 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" si="2"/>
         <v>268435456</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="2">
         <v>256</v>
       </c>
       <c r="D33">
@@ -11626,14 +13134,14 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" si="2"/>
         <v>268435456</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="2">
         <v>256</v>
       </c>
       <c r="D34">
@@ -11651,14 +13159,14 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="2">
         <f t="shared" si="2"/>
         <v>268435456</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="2">
         <v>256</v>
       </c>
       <c r="D35">
@@ -11676,14 +13184,14 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="2">
         <f t="shared" si="2"/>
         <v>268435456</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="2">
         <v>256</v>
       </c>
       <c r="D36">
@@ -11701,14 +13209,14 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="2">
         <f t="shared" si="2"/>
         <v>268435456</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="2">
         <v>256</v>
       </c>
       <c r="D37">
@@ -11726,14 +13234,14 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" t="s">
         <v>10</v>
       </c>
       <c r="B38" s="2">
         <f t="shared" si="2"/>
         <v>268435456</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="2">
         <v>256</v>
       </c>
       <c r="D38">
@@ -11751,14 +13259,14 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="2">
         <f t="shared" si="2"/>
         <v>268435456</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="2">
         <v>256</v>
       </c>
       <c r="D39">
@@ -11776,14 +13284,14 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="2">
         <f t="shared" si="2"/>
         <v>268435456</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="2">
         <v>256</v>
       </c>
       <c r="D40">
@@ -11801,14 +13309,14 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" t="s">
         <v>21</v>
       </c>
       <c r="B41" s="2">
         <f>POWER(2,27)</f>
         <v>134217728</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="2">
         <v>256</v>
       </c>
       <c r="D41">
@@ -11826,14 +13334,14 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="A42" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="2">
-        <f t="shared" ref="B42:B54" si="3">POWER(2,27)</f>
+        <f t="shared" ref="B42:B53" si="3">POWER(2,27)</f>
         <v>134217728</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="2">
         <v>256</v>
       </c>
       <c r="D42">
@@ -11851,14 +13359,14 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="A43" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="2">
         <f t="shared" si="3"/>
         <v>134217728</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="2">
         <v>256</v>
       </c>
       <c r="D43">
@@ -11876,14 +13384,14 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="A44" t="s">
         <v>9</v>
       </c>
       <c r="B44" s="2">
         <f t="shared" si="3"/>
         <v>134217728</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="2">
         <v>256</v>
       </c>
       <c r="D44">
@@ -11901,14 +13409,14 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="A45" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="2">
         <f t="shared" si="3"/>
         <v>134217728</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="2">
         <v>256</v>
       </c>
       <c r="D45">
@@ -11926,14 +13434,14 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="A46" t="s">
         <v>1</v>
       </c>
       <c r="B46" s="2">
         <f t="shared" si="3"/>
         <v>134217728</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="2">
         <v>256</v>
       </c>
       <c r="D46">
@@ -11951,14 +13459,14 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" t="s">
         <v>2</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" si="3"/>
         <v>134217728</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="2">
         <v>256</v>
       </c>
       <c r="D47">
@@ -11976,14 +13484,14 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="A48" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="2">
         <f t="shared" si="3"/>
         <v>134217728</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="2">
         <v>256</v>
       </c>
       <c r="D48">
@@ -12001,14 +13509,14 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="A49" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="2">
         <f t="shared" si="3"/>
         <v>134217728</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="2">
         <v>256</v>
       </c>
       <c r="D49">
@@ -12026,14 +13534,14 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="2">
         <f t="shared" si="3"/>
         <v>134217728</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="2">
         <v>256</v>
       </c>
       <c r="D50">
@@ -12051,14 +13559,14 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="A51" t="s">
         <v>10</v>
       </c>
       <c r="B51" s="2">
         <f t="shared" si="3"/>
         <v>134217728</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="2">
         <v>256</v>
       </c>
       <c r="D51">
@@ -12076,14 +13584,14 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="2">
         <f t="shared" si="3"/>
         <v>134217728</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="2">
         <v>256</v>
       </c>
       <c r="D52">
@@ -12101,14 +13609,14 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="2">
         <f t="shared" si="3"/>
         <v>134217728</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="2">
         <v>256</v>
       </c>
       <c r="D53">
@@ -12126,14 +13634,14 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+      <c r="A54" t="s">
         <v>21</v>
       </c>
       <c r="B54" s="2">
         <f>POWER(2,26)</f>
         <v>67108864</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="2">
         <v>256</v>
       </c>
       <c r="D54">
@@ -12151,14 +13659,14 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="A55" t="s">
         <v>0</v>
       </c>
       <c r="B55" s="2">
-        <f t="shared" ref="B55:B67" si="4">POWER(2,26)</f>
+        <f t="shared" ref="B55:B66" si="4">POWER(2,26)</f>
         <v>67108864</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="2">
         <v>256</v>
       </c>
       <c r="D55">
@@ -12176,14 +13684,14 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="2">
         <f t="shared" si="4"/>
         <v>67108864</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="2">
         <v>256</v>
       </c>
       <c r="D56">
@@ -12201,14 +13709,14 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="A57" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="2">
         <f t="shared" si="4"/>
         <v>67108864</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="2">
         <v>256</v>
       </c>
       <c r="D57">
@@ -12226,14 +13734,14 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="A58" t="s">
         <v>4</v>
       </c>
       <c r="B58" s="2">
         <f t="shared" si="4"/>
         <v>67108864</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="2">
         <v>256</v>
       </c>
       <c r="D58">
@@ -12251,14 +13759,14 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="A59" t="s">
         <v>1</v>
       </c>
       <c r="B59" s="2">
         <f t="shared" si="4"/>
         <v>67108864</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="2">
         <v>256</v>
       </c>
       <c r="D59">
@@ -12276,14 +13784,14 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" t="s">
         <v>2</v>
       </c>
       <c r="B60" s="2">
         <f t="shared" si="4"/>
         <v>67108864</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="2">
         <v>256</v>
       </c>
       <c r="D60">
@@ -12301,14 +13809,14 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="A61" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="2">
         <f t="shared" si="4"/>
         <v>67108864</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="2">
         <v>256</v>
       </c>
       <c r="D61">
@@ -12326,14 +13834,14 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+      <c r="A62" t="s">
         <v>10</v>
       </c>
       <c r="B62" s="2">
         <f t="shared" si="4"/>
         <v>67108864</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="2">
         <v>256</v>
       </c>
       <c r="D62">
@@ -12351,14 +13859,14 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="A63" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="2">
         <f t="shared" si="4"/>
         <v>67108864</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="2">
         <v>256</v>
       </c>
       <c r="D63">
@@ -12376,14 +13884,14 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="A64" t="s">
         <v>10</v>
       </c>
       <c r="B64" s="2">
         <f t="shared" si="4"/>
         <v>67108864</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="2">
         <v>256</v>
       </c>
       <c r="D64">
@@ -12401,14 +13909,14 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="A65" t="s">
         <v>12</v>
       </c>
       <c r="B65" s="2">
         <f t="shared" si="4"/>
         <v>67108864</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="2">
         <v>256</v>
       </c>
       <c r="D65">
@@ -12426,14 +13934,14 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="A66" t="s">
         <v>13</v>
       </c>
       <c r="B66" s="2">
         <f t="shared" si="4"/>
         <v>67108864</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="2">
         <v>256</v>
       </c>
       <c r="D66">
@@ -12451,14 +13959,14 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="A67" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="2">
         <f>POWER(2,25)</f>
         <v>33554432</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="2">
         <v>256</v>
       </c>
       <c r="D67">
@@ -12471,19 +13979,19 @@
         <v>48.249099999999999</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G118" si="5">AVERAGE(D67:F67)</f>
+        <f t="shared" ref="G67:G134" si="5">AVERAGE(D67:F67)</f>
         <v>45.074999999999996</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="A68" t="s">
         <v>0</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B80" si="6">POWER(2,25)</f>
+        <f t="shared" ref="B68:B79" si="6">POWER(2,25)</f>
         <v>33554432</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="2">
         <v>256</v>
       </c>
       <c r="D68">
@@ -12501,14 +14009,14 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="A69" t="s">
         <v>8</v>
       </c>
       <c r="B69" s="2">
         <f t="shared" si="6"/>
         <v>33554432</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="2">
         <v>256</v>
       </c>
       <c r="D69">
@@ -12526,14 +14034,14 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+      <c r="A70" t="s">
         <v>9</v>
       </c>
       <c r="B70" s="2">
         <f t="shared" si="6"/>
         <v>33554432</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="2">
         <v>256</v>
       </c>
       <c r="D70">
@@ -12551,14 +14059,14 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="A71" t="s">
         <v>4</v>
       </c>
       <c r="B71" s="2">
         <f t="shared" si="6"/>
         <v>33554432</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="2">
         <v>256</v>
       </c>
       <c r="D71">
@@ -12576,14 +14084,14 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+      <c r="A72" t="s">
         <v>1</v>
       </c>
       <c r="B72" s="2">
         <f t="shared" si="6"/>
         <v>33554432</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="2">
         <v>256</v>
       </c>
       <c r="D72">
@@ -12601,14 +14109,14 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+      <c r="A73" t="s">
         <v>2</v>
       </c>
       <c r="B73" s="2">
         <f t="shared" si="6"/>
         <v>33554432</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="2">
         <v>256</v>
       </c>
       <c r="D73">
@@ -12626,14 +14134,14 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+      <c r="A74" t="s">
         <v>3</v>
       </c>
       <c r="B74" s="2">
         <f t="shared" si="6"/>
         <v>33554432</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="2">
         <v>256</v>
       </c>
       <c r="D74">
@@ -12651,14 +14159,14 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+      <c r="A75" t="s">
         <v>10</v>
       </c>
       <c r="B75" s="2">
         <f t="shared" si="6"/>
         <v>33554432</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="2">
         <v>256</v>
       </c>
       <c r="D75">
@@ -12676,14 +14184,14 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+      <c r="A76" t="s">
         <v>11</v>
       </c>
       <c r="B76" s="2">
         <f t="shared" si="6"/>
         <v>33554432</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="2">
         <v>256</v>
       </c>
       <c r="D76">
@@ -12701,14 +14209,14 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+      <c r="A77" t="s">
         <v>10</v>
       </c>
       <c r="B77" s="2">
         <f t="shared" si="6"/>
         <v>33554432</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="2">
         <v>256</v>
       </c>
       <c r="D77">
@@ -12726,14 +14234,14 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+      <c r="A78" t="s">
         <v>12</v>
       </c>
       <c r="B78" s="2">
         <f t="shared" si="6"/>
         <v>33554432</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="2">
         <v>256</v>
       </c>
       <c r="D78">
@@ -12751,14 +14259,14 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+      <c r="A79" t="s">
         <v>13</v>
       </c>
       <c r="B79" s="2">
         <f t="shared" si="6"/>
         <v>33554432</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="2">
         <v>256</v>
       </c>
       <c r="D79">
@@ -12776,14 +14284,14 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+      <c r="A80" t="s">
         <v>21</v>
       </c>
       <c r="B80" s="2">
         <f>POWER(2,24)</f>
         <v>16777216</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="2">
         <v>256</v>
       </c>
       <c r="D80">
@@ -12801,14 +14309,14 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+      <c r="A81" t="s">
         <v>0</v>
       </c>
       <c r="B81" s="2">
-        <f t="shared" ref="B81:B93" si="7">POWER(2,24)</f>
+        <f t="shared" ref="B81:B92" si="7">POWER(2,24)</f>
         <v>16777216</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="2">
         <v>256</v>
       </c>
       <c r="D81">
@@ -12826,14 +14334,14 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+      <c r="A82" t="s">
         <v>8</v>
       </c>
       <c r="B82" s="2">
         <f t="shared" si="7"/>
         <v>16777216</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="2">
         <v>256</v>
       </c>
       <c r="D82">
@@ -12851,14 +14359,14 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+      <c r="A83" t="s">
         <v>9</v>
       </c>
       <c r="B83" s="2">
         <f t="shared" si="7"/>
         <v>16777216</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="2">
         <v>256</v>
       </c>
       <c r="D83">
@@ -12876,14 +14384,14 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="A84" t="s">
         <v>4</v>
       </c>
       <c r="B84" s="2">
         <f t="shared" si="7"/>
         <v>16777216</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="2">
         <v>256</v>
       </c>
       <c r="D84">
@@ -12901,14 +14409,14 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+      <c r="A85" t="s">
         <v>1</v>
       </c>
       <c r="B85" s="2">
         <f t="shared" si="7"/>
         <v>16777216</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="2">
         <v>256</v>
       </c>
       <c r="D85">
@@ -12926,14 +14434,14 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
+      <c r="A86" t="s">
         <v>2</v>
       </c>
       <c r="B86" s="2">
         <f t="shared" si="7"/>
         <v>16777216</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="2">
         <v>256</v>
       </c>
       <c r="D86">
@@ -12951,14 +14459,14 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
+      <c r="A87" t="s">
         <v>3</v>
       </c>
       <c r="B87" s="2">
         <f t="shared" si="7"/>
         <v>16777216</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="2">
         <v>256</v>
       </c>
       <c r="D87">
@@ -12976,14 +14484,14 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+      <c r="A88" t="s">
         <v>10</v>
       </c>
       <c r="B88" s="2">
         <f t="shared" si="7"/>
         <v>16777216</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="2">
         <v>256</v>
       </c>
       <c r="D88">
@@ -13001,14 +14509,14 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
+      <c r="A89" t="s">
         <v>11</v>
       </c>
       <c r="B89" s="2">
         <f t="shared" si="7"/>
         <v>16777216</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="2">
         <v>256</v>
       </c>
       <c r="D89">
@@ -13026,14 +14534,14 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
+      <c r="A90" t="s">
         <v>10</v>
       </c>
       <c r="B90" s="2">
         <f t="shared" si="7"/>
         <v>16777216</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="2">
         <v>256</v>
       </c>
       <c r="D90">
@@ -13051,14 +14559,14 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
+      <c r="A91" t="s">
         <v>12</v>
       </c>
       <c r="B91" s="2">
         <f t="shared" si="7"/>
         <v>16777216</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="2">
         <v>256</v>
       </c>
       <c r="D91">
@@ -13076,14 +14584,14 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
+      <c r="A92" t="s">
         <v>13</v>
       </c>
       <c r="B92" s="2">
         <f t="shared" si="7"/>
         <v>16777216</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="2">
         <v>256</v>
       </c>
       <c r="D92">
@@ -13101,14 +14609,14 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
+      <c r="A93" t="s">
         <v>21</v>
       </c>
       <c r="B93" s="2">
         <f>POWER(2,23)</f>
         <v>8388608</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="2">
         <v>256</v>
       </c>
       <c r="D93">
@@ -13126,14 +14634,14 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
+      <c r="A94" t="s">
         <v>0</v>
       </c>
       <c r="B94" s="2">
-        <f t="shared" ref="B94:B106" si="8">POWER(2,23)</f>
+        <f t="shared" ref="B94:B105" si="8">POWER(2,23)</f>
         <v>8388608</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="2">
         <v>256</v>
       </c>
       <c r="D94">
@@ -13151,14 +14659,14 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
+      <c r="A95" t="s">
         <v>8</v>
       </c>
       <c r="B95" s="2">
         <f t="shared" si="8"/>
         <v>8388608</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="2">
         <v>256</v>
       </c>
       <c r="D95">
@@ -13176,14 +14684,14 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
+      <c r="A96" t="s">
         <v>9</v>
       </c>
       <c r="B96" s="2">
         <f t="shared" si="8"/>
         <v>8388608</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="2">
         <v>256</v>
       </c>
       <c r="D96">
@@ -13201,14 +14709,14 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+      <c r="A97" t="s">
         <v>4</v>
       </c>
       <c r="B97" s="2">
         <f t="shared" si="8"/>
         <v>8388608</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="2">
         <v>256</v>
       </c>
       <c r="D97">
@@ -13226,14 +14734,14 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
+      <c r="A98" t="s">
         <v>1</v>
       </c>
       <c r="B98" s="2">
         <f t="shared" si="8"/>
         <v>8388608</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="2">
         <v>256</v>
       </c>
       <c r="D98">
@@ -13251,14 +14759,14 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
+      <c r="A99" t="s">
         <v>2</v>
       </c>
       <c r="B99" s="2">
         <f t="shared" si="8"/>
         <v>8388608</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="2">
         <v>256</v>
       </c>
       <c r="D99">
@@ -13276,14 +14784,14 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
+      <c r="A100" t="s">
         <v>3</v>
       </c>
       <c r="B100" s="2">
         <f t="shared" si="8"/>
         <v>8388608</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="2">
         <v>256</v>
       </c>
       <c r="D100">
@@ -13301,14 +14809,14 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
+      <c r="A101" t="s">
         <v>10</v>
       </c>
       <c r="B101" s="2">
         <f t="shared" si="8"/>
         <v>8388608</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="2">
         <v>256</v>
       </c>
       <c r="D101">
@@ -13326,14 +14834,14 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
+      <c r="A102" t="s">
         <v>11</v>
       </c>
       <c r="B102" s="2">
         <f t="shared" si="8"/>
         <v>8388608</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="2">
         <v>256</v>
       </c>
       <c r="D102">
@@ -13351,14 +14859,14 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
+      <c r="A103" t="s">
         <v>10</v>
       </c>
       <c r="B103" s="2">
         <f t="shared" si="8"/>
         <v>8388608</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="2">
         <v>256</v>
       </c>
       <c r="D103">
@@ -13376,14 +14884,14 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
+      <c r="A104" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="2">
         <f t="shared" si="8"/>
         <v>8388608</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="2">
         <v>256</v>
       </c>
       <c r="D104">
@@ -13401,14 +14909,14 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
+      <c r="A105" t="s">
         <v>13</v>
       </c>
       <c r="B105" s="2">
         <f t="shared" si="8"/>
         <v>8388608</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="2">
         <v>256</v>
       </c>
       <c r="D105">
@@ -13426,14 +14934,14 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
+      <c r="A106" t="s">
         <v>21</v>
       </c>
       <c r="B106" s="2">
         <f>POWER(2,22)</f>
         <v>4194304</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="2">
         <v>256</v>
       </c>
       <c r="D106">
@@ -13451,14 +14959,14 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
+      <c r="A107" t="s">
         <v>0</v>
       </c>
       <c r="B107" s="2">
         <f t="shared" ref="B107:B118" si="9">POWER(2,22)</f>
         <v>4194304</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="2">
         <v>256</v>
       </c>
       <c r="D107">
@@ -13476,14 +14984,14 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
+      <c r="A108" t="s">
         <v>8</v>
       </c>
       <c r="B108" s="2">
         <f t="shared" si="9"/>
         <v>4194304</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="2">
         <v>256</v>
       </c>
       <c r="D108">
@@ -13501,14 +15009,14 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
+      <c r="A109" t="s">
         <v>9</v>
       </c>
       <c r="B109" s="2">
         <f t="shared" si="9"/>
         <v>4194304</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109" s="2">
         <v>256</v>
       </c>
       <c r="D109">
@@ -13526,14 +15034,14 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
+      <c r="A110" t="s">
         <v>4</v>
       </c>
       <c r="B110" s="2">
         <f t="shared" si="9"/>
         <v>4194304</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="2">
         <v>256</v>
       </c>
       <c r="D110">
@@ -13551,14 +15059,14 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
+      <c r="A111" t="s">
         <v>1</v>
       </c>
       <c r="B111" s="2">
         <f t="shared" si="9"/>
         <v>4194304</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="2">
         <v>256</v>
       </c>
       <c r="D111">
@@ -13576,14 +15084,14 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
+      <c r="A112" t="s">
         <v>2</v>
       </c>
       <c r="B112" s="2">
         <f t="shared" si="9"/>
         <v>4194304</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="2">
         <v>256</v>
       </c>
       <c r="D112">
@@ -13601,14 +15109,14 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
+      <c r="A113" t="s">
         <v>3</v>
       </c>
       <c r="B113" s="2">
         <f t="shared" si="9"/>
         <v>4194304</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="2">
         <v>256</v>
       </c>
       <c r="D113">
@@ -13626,14 +15134,14 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
+      <c r="A114" t="s">
         <v>10</v>
       </c>
       <c r="B114" s="2">
         <f t="shared" si="9"/>
         <v>4194304</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="2">
         <v>256</v>
       </c>
       <c r="D114">
@@ -13651,14 +15159,14 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
+      <c r="A115" t="s">
         <v>11</v>
       </c>
       <c r="B115" s="2">
         <f t="shared" si="9"/>
         <v>4194304</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115" s="2">
         <v>256</v>
       </c>
       <c r="D115">
@@ -13676,14 +15184,14 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
+      <c r="A116" t="s">
         <v>10</v>
       </c>
       <c r="B116" s="2">
         <f t="shared" si="9"/>
         <v>4194304</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="2">
         <v>256</v>
       </c>
       <c r="D116">
@@ -13701,14 +15209,14 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
+      <c r="A117" t="s">
         <v>12</v>
       </c>
       <c r="B117" s="2">
         <f t="shared" si="9"/>
         <v>4194304</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117" s="2">
         <v>256</v>
       </c>
       <c r="D117">
@@ -13726,14 +15234,14 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
+      <c r="A118" t="s">
         <v>13</v>
       </c>
       <c r="B118" s="2">
         <f t="shared" si="9"/>
         <v>4194304</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="2">
         <v>256</v>
       </c>
       <c r="D118">
@@ -13749,6 +15257,409 @@
         <f t="shared" si="5"/>
         <v>0.85331199999999996</v>
       </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B119" s="2">
+        <f>POWER(2,29)</f>
+        <v>536870912</v>
+      </c>
+      <c r="C119" s="2">
+        <v>256</v>
+      </c>
+      <c r="D119">
+        <v>41.707299999999996</v>
+      </c>
+      <c r="E119">
+        <v>45.2637</v>
+      </c>
+      <c r="F119">
+        <v>46.855899999999998</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="5"/>
+        <v>44.608966666666667</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="2">
+        <f>POWER(2,29)</f>
+        <v>536870912</v>
+      </c>
+      <c r="C120" s="2">
+        <v>256</v>
+      </c>
+      <c r="D120">
+        <v>42.127800000000001</v>
+      </c>
+      <c r="E120">
+        <v>47.643599999999999</v>
+      </c>
+      <c r="F120">
+        <v>42.092100000000002</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="5"/>
+        <v>43.954499999999996</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B121" s="2">
+        <f>POWER(2,28)</f>
+        <v>268435456</v>
+      </c>
+      <c r="C121" s="2">
+        <v>256</v>
+      </c>
+      <c r="D121">
+        <v>26.037099999999999</v>
+      </c>
+      <c r="E121">
+        <v>23.4237</v>
+      </c>
+      <c r="F121">
+        <v>21.142299999999999</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="5"/>
+        <v>23.534366666666667</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122" s="2">
+        <f>POWER(2,28)</f>
+        <v>268435456</v>
+      </c>
+      <c r="C122" s="2">
+        <v>256</v>
+      </c>
+      <c r="D122">
+        <v>22.1967</v>
+      </c>
+      <c r="E122">
+        <v>22.496600000000001</v>
+      </c>
+      <c r="F122">
+        <v>21.086300000000001</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="5"/>
+        <v>21.926533333333335</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B123" s="2">
+        <f>POWER(2,27)</f>
+        <v>134217728</v>
+      </c>
+      <c r="C123" s="2">
+        <v>256</v>
+      </c>
+      <c r="D123">
+        <v>12.881600000000001</v>
+      </c>
+      <c r="E123">
+        <v>11.6974</v>
+      </c>
+      <c r="F123">
+        <v>12.1221</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="5"/>
+        <v>12.233699999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" s="2">
+        <f>POWER(2,27)</f>
+        <v>134217728</v>
+      </c>
+      <c r="C124" s="2">
+        <v>256</v>
+      </c>
+      <c r="D124">
+        <v>10.85</v>
+      </c>
+      <c r="E124">
+        <v>10.7867</v>
+      </c>
+      <c r="F124">
+        <v>10.9915</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="5"/>
+        <v>10.876066666666667</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B125" s="2">
+        <f>POWER(2,26)</f>
+        <v>67108864</v>
+      </c>
+      <c r="C125" s="2">
+        <v>256</v>
+      </c>
+      <c r="D125">
+        <v>11.497999999999999</v>
+      </c>
+      <c r="E125">
+        <v>7.83955</v>
+      </c>
+      <c r="F125">
+        <v>7.8084499999999997</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="5"/>
+        <v>9.0486666666666675</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" s="2">
+        <f>POWER(2,26)</f>
+        <v>67108864</v>
+      </c>
+      <c r="C126" s="2">
+        <v>256</v>
+      </c>
+      <c r="D126">
+        <v>5.7131499999999997</v>
+      </c>
+      <c r="E126">
+        <v>5.7570600000000001</v>
+      </c>
+      <c r="F126">
+        <v>8.3558400000000006</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="5"/>
+        <v>6.6086833333333344</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B127" s="2">
+        <f>POWER(2,25)</f>
+        <v>33554432</v>
+      </c>
+      <c r="C127" s="2">
+        <v>256</v>
+      </c>
+      <c r="D127">
+        <v>6.2834599999999998</v>
+      </c>
+      <c r="E127">
+        <v>3.7739799999999999</v>
+      </c>
+      <c r="F127">
+        <v>4.0902399999999997</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="5"/>
+        <v>4.7158933333333328</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" s="2">
+        <f>POWER(2,25)</f>
+        <v>33554432</v>
+      </c>
+      <c r="C128" s="2">
+        <v>256</v>
+      </c>
+      <c r="D128">
+        <v>3.1608999999999998</v>
+      </c>
+      <c r="E128">
+        <v>2.9136000000000002</v>
+      </c>
+      <c r="F128">
+        <v>3.4645800000000002</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="5"/>
+        <v>3.1796933333333333</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B129" s="2">
+        <f>POWER(2,24)</f>
+        <v>16777216</v>
+      </c>
+      <c r="C129" s="2">
+        <v>256</v>
+      </c>
+      <c r="D129">
+        <v>2.4487000000000001</v>
+      </c>
+      <c r="E129">
+        <v>4.2395800000000001</v>
+      </c>
+      <c r="F129">
+        <v>2.8659020000000002</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="5"/>
+        <v>3.1847273333333335</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" s="2">
+        <f>POWER(2,24)</f>
+        <v>16777216</v>
+      </c>
+      <c r="C130" s="2">
+        <v>256</v>
+      </c>
+      <c r="D130">
+        <v>1.57578</v>
+      </c>
+      <c r="E130">
+        <v>1.54253</v>
+      </c>
+      <c r="F130">
+        <v>1.65872</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="5"/>
+        <v>1.5923433333333332</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B131" s="2">
+        <f>POWER(2,23)</f>
+        <v>8388608</v>
+      </c>
+      <c r="C131" s="2">
+        <v>256</v>
+      </c>
+      <c r="D131">
+        <v>1.60432</v>
+      </c>
+      <c r="E131">
+        <v>1.51603</v>
+      </c>
+      <c r="F131">
+        <v>1.57037</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="5"/>
+        <v>1.5635733333333335</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132" s="2">
+        <f>POWER(2,23)</f>
+        <v>8388608</v>
+      </c>
+      <c r="C132" s="2">
+        <v>256</v>
+      </c>
+      <c r="D132">
+        <v>0.96812799999999999</v>
+      </c>
+      <c r="E132">
+        <v>1.0662700000000001</v>
+      </c>
+      <c r="F132">
+        <v>1.02979</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="5"/>
+        <v>1.021396</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B133" s="2">
+        <f>POWER(2,22)</f>
+        <v>4194304</v>
+      </c>
+      <c r="C133" s="2">
+        <v>256</v>
+      </c>
+      <c r="D133">
+        <v>1.28714</v>
+      </c>
+      <c r="E133">
+        <v>3.6091799999999998</v>
+      </c>
+      <c r="F133">
+        <v>1.1645799999999999</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="5"/>
+        <v>2.0202999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" s="2">
+        <f>POWER(2,22)</f>
+        <v>4194304</v>
+      </c>
+      <c r="C134" s="2">
+        <v>256</v>
+      </c>
+      <c r="D134">
+        <v>0.57564800000000005</v>
+      </c>
+      <c r="E134">
+        <v>0.744896</v>
+      </c>
+      <c r="F134">
+        <v>0.65404799999999996</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="5"/>
+        <v>0.6581973333333333</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A118">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aaron\College\CIS_5650\Project2-Stream-Compaction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDDA057-CE8D-4674-A156-4015B6593274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC827F0A-5FD1-464E-BBE3-4FBA43B43E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="384" windowWidth="28416" windowHeight="15840" activeTab="2" xr2:uid="{D6997968-E39F-482B-956E-E2FDAE7BCDC8}"/>
+    <workbookView xWindow="12420" yWindow="384" windowWidth="28416" windowHeight="15840" xr2:uid="{D6997968-E39F-482B-956E-E2FDAE7BCDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="block sizes" sheetId="8" r:id="rId1"/>
@@ -20,8 +20,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId5"/>
-    <pivotCache cacheId="11" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="26">
   <si>
     <t>cpu scan, non-power of two</t>
   </si>
@@ -116,6 +116,12 @@
   <si>
     <t>work-efficient scan shared memory, non-power-of-two</t>
   </si>
+  <si>
+    <t>Delta from 128 to 256</t>
+  </si>
+  <si>
+    <t>% Delta Work Efficient with Shared Memory</t>
+  </si>
 </sst>
 </file>
 
@@ -174,8 +180,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -999,6 +1005,9 @@
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1111,6 +1120,9 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1279,6 +1291,9 @@
       <c:pivotFmt>
         <c:idx val="17"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1503,6 +1518,9 @@
       <c:pivotFmt>
         <c:idx val="21"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1559,6 +1577,9 @@
       <c:pivotFmt>
         <c:idx val="22"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1615,6 +1636,124 @@
       <c:pivotFmt>
         <c:idx val="23"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1683,7 +1822,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cpu compact with scan</c:v>
+                  <c:v>naive scan, non-power-of-two</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1721,10 +1860,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1443.1075000000001</c:v>
+                  <c:v>241.1816666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1409.4475</c:v>
+                  <c:v>236.333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1745,7 +1884,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cpu compact without scan</c:v>
+                  <c:v>naive scan, power-of-two</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1783,10 +1922,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>998.74900000000014</c:v>
+                  <c:v>239.10233333333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>986.56599999999992</c:v>
+                  <c:v>236.18699999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1807,7 +1946,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cpu scan, non-power of two</c:v>
+                  <c:v>work-efficient compact, non-power-of-two</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1845,10 +1984,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>745.20233333333329</c:v>
+                  <c:v>314.57133333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>690.46799999999996</c:v>
+                  <c:v>314.94466666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1869,7 +2008,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cpu scan, power-of-two</c:v>
+                  <c:v>work-efficient compact, power-of-two</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1907,10 +2046,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>714.54533333333336</c:v>
+                  <c:v>314.34799999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>698.82566666666662</c:v>
+                  <c:v>313.77766666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1931,7 +2070,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>naive scan, non-power-of-two</c:v>
+                  <c:v>work-efficient scan, non-power-of-two</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1969,10 +2108,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>241.1816666666667</c:v>
+                  <c:v>288.01233333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>236.333</c:v>
+                  <c:v>286.96033333333338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1993,7 +2132,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>naive scan, power-of-two</c:v>
+                  <c:v>work-efficient scan, power-of-two</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2031,10 +2170,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>239.10233333333335</c:v>
+                  <c:v>320.53633333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>236.18699999999998</c:v>
+                  <c:v>287.25366666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2055,7 +2194,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>thrust scan, non-power-of-two</c:v>
+                  <c:v>work-efficient scan shared memory, power-of-two</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2094,11 +2233,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>7.7525866666666667</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7997233333333327</c:v>
+                  <c:v>44.608966666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2106,327 +2242,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-942D-43FF-B659-873A050EFCF8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'block sizes'!$I$3:$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>thrust scan, power-of-two</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'block sizes'!$A$5:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'block sizes'!$I$5:$I$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8.2887466666666665</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.3436466666666664</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-942D-43FF-B659-873A050EFCF8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'block sizes'!$J$3:$J$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>work-efficient compact, non-power-of-two</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'block sizes'!$A$5:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'block sizes'!$J$5:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>314.57133333333331</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>314.94466666666671</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-942D-43FF-B659-873A050EFCF8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'block sizes'!$K$3:$K$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>work-efficient compact, power-of-two</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'block sizes'!$A$5:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'block sizes'!$K$5:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>314.34799999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>313.77766666666668</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-942D-43FF-B659-873A050EFCF8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'block sizes'!$L$3:$L$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>work-efficient scan, non-power-of-two</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'block sizes'!$A$5:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'block sizes'!$L$5:$L$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>288.01233333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>286.96033333333338</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-942D-43FF-B659-873A050EFCF8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'block sizes'!$M$3:$M$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>work-efficient scan, power-of-two</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'block sizes'!$A$5:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'block sizes'!$M$5:$M$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>320.53633333333329</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>287.25366666666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-942D-43FF-B659-873A050EFCF8}"/>
+              <c16:uniqueId val="{00000000-615A-499A-8C0A-05FA7AEA6B01}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8016,67 +7832,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aaron Tian" refreshedDate="45913.661232407409" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="117" xr:uid="{4DCD0BD5-E41A-4FA2-8907-AE7B1874E775}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G118" sheet="data"/>
-  </cacheSource>
-  <cacheFields count="7">
-    <cacheField name="Test Name" numFmtId="0">
-      <sharedItems count="12">
-        <s v="cpu scan, power-of-two"/>
-        <s v="cpu scan, non-power of two"/>
-        <s v="naive scan, power-of-two"/>
-        <s v="naive scan, non-power-of-two"/>
-        <s v="work-efficient scan, power-of-two"/>
-        <s v="work-efficient scan, non-power-of-two"/>
-        <s v="thrust scan, power-of-two"/>
-        <s v="thrust scan, non-power-of-two"/>
-        <s v="cpu compact with scan"/>
-        <s v="cpu compact without scan"/>
-        <s v="work-efficient compact, power-of-two"/>
-        <s v="work-efficient compact, non-power-of-two"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Number of 32 Bit Integers" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4194304" maxValue="536870912" count="8">
-        <n v="536870912"/>
-        <n v="268435456"/>
-        <n v="134217728"/>
-        <n v="67108864"/>
-        <n v="33554432"/>
-        <n v="16777216"/>
-        <n v="8388608"/>
-        <n v="4194304"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Block Size" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="128" maxValue="256" count="2">
-        <n v="256"/>
-        <n v="128"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Run1" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.34300799999999998" maxValue="1855.43"/>
-    </cacheField>
-    <cacheField name="Run2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.27379199999999998" maxValue="1912.85"/>
-    </cacheField>
-    <cacheField name="Run3" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.251776" maxValue="1873.52"/>
-    </cacheField>
-    <cacheField name="Average Runtime" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.28952533333333336" maxValue="1868.3966666666668"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aaron Tian" refreshedDate="45913.661552430553" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="133" xr:uid="{6261AE94-B778-4E6B-9A9C-E746EAC52F14}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G134" sheet="data"/>
@@ -8139,8 +7894,69 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aaron Tian" refreshedDate="45913.662973611114" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="117" xr:uid="{4DCD0BD5-E41A-4FA2-8907-AE7B1874E775}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G118" sheet="data"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Test Name" numFmtId="0">
+      <sharedItems count="12">
+        <s v="cpu scan, power-of-two"/>
+        <s v="cpu scan, non-power of two"/>
+        <s v="naive scan, power-of-two"/>
+        <s v="naive scan, non-power-of-two"/>
+        <s v="work-efficient scan, power-of-two"/>
+        <s v="work-efficient scan, non-power-of-two"/>
+        <s v="thrust scan, power-of-two"/>
+        <s v="thrust scan, non-power-of-two"/>
+        <s v="cpu compact with scan"/>
+        <s v="cpu compact without scan"/>
+        <s v="work-efficient compact, power-of-two"/>
+        <s v="work-efficient compact, non-power-of-two"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Number of 32 Bit Integers" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4194304" maxValue="536870912" count="8">
+        <n v="536870912"/>
+        <n v="268435456"/>
+        <n v="134217728"/>
+        <n v="67108864"/>
+        <n v="33554432"/>
+        <n v="16777216"/>
+        <n v="8388608"/>
+        <n v="4194304"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Block Size" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="128" maxValue="256" count="2">
+        <n v="256"/>
+        <n v="128"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Run1" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.34300799999999998" maxValue="1855.43"/>
+    </cacheField>
+    <cacheField name="Run2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.27379199999999998" maxValue="1912.85"/>
+    </cacheField>
+    <cacheField name="Run3" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.251776" maxValue="1873.52"/>
+    </cacheField>
+    <cacheField name="Average Runtime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.28952533333333336" maxValue="1868.3966666666668"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="117">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="133">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -9194,11 +9010,155 @@
     <n v="0.80553600000000003"/>
     <n v="0.85331199999999996"/>
   </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="41.707299999999996"/>
+    <n v="45.2637"/>
+    <n v="46.855899999999998"/>
+    <n v="44.608966666666667"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="42.127800000000001"/>
+    <n v="47.643599999999999"/>
+    <n v="42.092100000000002"/>
+    <n v="43.954499999999996"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="26.037099999999999"/>
+    <n v="23.4237"/>
+    <n v="21.142299999999999"/>
+    <n v="23.534366666666667"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="22.1967"/>
+    <n v="22.496600000000001"/>
+    <n v="21.086300000000001"/>
+    <n v="21.926533333333335"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="12.881600000000001"/>
+    <n v="11.6974"/>
+    <n v="12.1221"/>
+    <n v="12.233699999999999"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="10.85"/>
+    <n v="10.7867"/>
+    <n v="10.9915"/>
+    <n v="10.876066666666667"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="11.497999999999999"/>
+    <n v="7.83955"/>
+    <n v="7.8084499999999997"/>
+    <n v="9.0486666666666675"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="5.7131499999999997"/>
+    <n v="5.7570600000000001"/>
+    <n v="8.3558400000000006"/>
+    <n v="6.6086833333333344"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="6.2834599999999998"/>
+    <n v="3.7739799999999999"/>
+    <n v="4.0902399999999997"/>
+    <n v="4.7158933333333328"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="3.1608999999999998"/>
+    <n v="2.9136000000000002"/>
+    <n v="3.4645800000000002"/>
+    <n v="3.1796933333333333"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="2.4487000000000001"/>
+    <n v="4.2395800000000001"/>
+    <n v="2.8659020000000002"/>
+    <n v="3.1847273333333335"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="1.57578"/>
+    <n v="1.54253"/>
+    <n v="1.65872"/>
+    <n v="1.5923433333333332"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="1.60432"/>
+    <n v="1.51603"/>
+    <n v="1.57037"/>
+    <n v="1.5635733333333335"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="0.96812799999999999"/>
+    <n v="1.0662700000000001"/>
+    <n v="1.02979"/>
+    <n v="1.021396"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="1.28714"/>
+    <n v="3.6091799999999998"/>
+    <n v="1.1645799999999999"/>
+    <n v="2.0202999999999998"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="0.57564800000000005"/>
+    <n v="0.744896"/>
+    <n v="0.65404799999999996"/>
+    <n v="0.6581973333333333"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="133">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="117">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -10252,171 +10212,29 @@
     <n v="0.80553600000000003"/>
     <n v="0.85331199999999996"/>
   </r>
-  <r>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="41.707299999999996"/>
-    <n v="45.2637"/>
-    <n v="46.855899999999998"/>
-    <n v="44.608966666666667"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="42.127800000000001"/>
-    <n v="47.643599999999999"/>
-    <n v="42.092100000000002"/>
-    <n v="43.954499999999996"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="26.037099999999999"/>
-    <n v="23.4237"/>
-    <n v="21.142299999999999"/>
-    <n v="23.534366666666667"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="22.1967"/>
-    <n v="22.496600000000001"/>
-    <n v="21.086300000000001"/>
-    <n v="21.926533333333335"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="12.881600000000001"/>
-    <n v="11.6974"/>
-    <n v="12.1221"/>
-    <n v="12.233699999999999"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="10.85"/>
-    <n v="10.7867"/>
-    <n v="10.9915"/>
-    <n v="10.876066666666667"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="11.497999999999999"/>
-    <n v="7.83955"/>
-    <n v="7.8084499999999997"/>
-    <n v="9.0486666666666675"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="5.7131499999999997"/>
-    <n v="5.7570600000000001"/>
-    <n v="8.3558400000000006"/>
-    <n v="6.6086833333333344"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="6.2834599999999998"/>
-    <n v="3.7739799999999999"/>
-    <n v="4.0902399999999997"/>
-    <n v="4.7158933333333328"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="3.1608999999999998"/>
-    <n v="2.9136000000000002"/>
-    <n v="3.4645800000000002"/>
-    <n v="3.1796933333333333"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="2.4487000000000001"/>
-    <n v="4.2395800000000001"/>
-    <n v="2.8659020000000002"/>
-    <n v="3.1847273333333335"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="1.57578"/>
-    <n v="1.54253"/>
-    <n v="1.65872"/>
-    <n v="1.5923433333333332"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="1.60432"/>
-    <n v="1.51603"/>
-    <n v="1.57037"/>
-    <n v="1.5635733333333335"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="0.96812799999999999"/>
-    <n v="1.0662700000000001"/>
-    <n v="1.02979"/>
-    <n v="1.021396"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="1.28714"/>
-    <n v="3.6091799999999998"/>
-    <n v="1.1645799999999999"/>
-    <n v="2.0202999999999998"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="0.57564800000000005"/>
-    <n v="0.744896"/>
-    <n v="0.65404799999999996"/>
-    <n v="0.6581973333333333"/>
-  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B08FF693-7DD4-4894-912F-DAC3BD30711E}" name="PivotTable15" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A3:M6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8943B2C-A469-4582-A3FA-DFBA6A96CA64}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:H6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
-      <items count="12">
-        <item x="8"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="0"/>
+      <items count="14">
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
         <item x="3"/>
         <item x="2"/>
-        <item x="7"/>
-        <item x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
         <item x="11"/>
         <item x="10"/>
         <item x="5"/>
         <item x="4"/>
+        <item x="12"/>
+        <item h="1" x="13"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" numFmtId="1" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
@@ -10456,30 +10274,12 @@
   <colFields count="1">
     <field x="0"/>
   </colFields>
-  <colItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
+  <colItems count="7">
     <i>
       <x v="4"/>
     </i>
     <i>
       <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
     </i>
     <i>
       <x v="8"/>
@@ -10493,6 +10293,9 @@
     <i>
       <x v="11"/>
     </i>
+    <i>
+      <x v="12"/>
+    </i>
   </colItems>
   <pageFields count="1">
     <pageField fld="1" hier="-1"/>
@@ -10500,7 +10303,7 @@
   <dataFields count="1">
     <dataField name="Avg Runtime" fld="6" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
-  <chartFormats count="24">
+  <chartFormats count="26">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -10789,6 +10592,30 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="2" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -10803,7 +10630,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7841A04B-B89C-4F9B-927F-44D7404A0A5A}" name="PivotTable15" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7841A04B-B89C-4F9B-927F-44D7404A0A5A}" name="PivotTable15" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:D12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -11137,7 +10964,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9AAAF03-4B09-4FB0-88CC-4881766ECFC6}" name="PivotTable15" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9AAAF03-4B09-4FB0-88CC-4881766ECFC6}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:F12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -11723,31 +11550,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13593C9A-C3E1-43EF-908E-CFAA9271384B}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="46.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -11755,7 +11583,7 @@
         <v>536870912</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -11763,130 +11591,124 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>128</v>
       </c>
       <c r="B5" s="7">
-        <v>1443.1075000000001</v>
+        <v>241.1816666666667</v>
       </c>
       <c r="C5" s="7">
-        <v>998.74900000000014</v>
+        <v>239.10233333333335</v>
       </c>
       <c r="D5" s="7">
-        <v>745.20233333333329</v>
+        <v>314.57133333333331</v>
       </c>
       <c r="E5" s="7">
-        <v>714.54533333333336</v>
+        <v>314.34799999999996</v>
       </c>
       <c r="F5" s="7">
-        <v>241.1816666666667</v>
+        <v>288.01233333333334</v>
       </c>
       <c r="G5" s="7">
-        <v>239.10233333333335</v>
-      </c>
-      <c r="H5" s="7">
-        <v>7.7525866666666667</v>
-      </c>
-      <c r="I5" s="7">
-        <v>8.2887466666666665</v>
-      </c>
-      <c r="J5" s="7">
-        <v>314.57133333333331</v>
-      </c>
-      <c r="K5" s="7">
-        <v>314.34799999999996</v>
-      </c>
-      <c r="L5" s="7">
-        <v>288.01233333333334</v>
-      </c>
-      <c r="M5" s="7">
         <v>320.53633333333329</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>256</v>
       </c>
       <c r="B6" s="7">
-        <v>1409.4475</v>
+        <v>236.333</v>
       </c>
       <c r="C6" s="7">
-        <v>986.56599999999992</v>
+        <v>236.18699999999998</v>
       </c>
       <c r="D6" s="7">
-        <v>690.46799999999996</v>
+        <v>314.94466666666671</v>
       </c>
       <c r="E6" s="7">
-        <v>698.82566666666662</v>
+        <v>313.77766666666668</v>
       </c>
       <c r="F6" s="7">
-        <v>236.333</v>
+        <v>286.96033333333338</v>
       </c>
       <c r="G6" s="7">
-        <v>236.18699999999998</v>
+        <v>287.25366666666667</v>
       </c>
       <c r="H6" s="7">
-        <v>7.7997233333333327</v>
-      </c>
-      <c r="I6" s="7">
-        <v>8.3436466666666664</v>
-      </c>
-      <c r="J6" s="7">
-        <v>314.94466666666671</v>
-      </c>
-      <c r="K6" s="7">
-        <v>313.77766666666668</v>
-      </c>
-      <c r="L6" s="7">
-        <v>286.96033333333338</v>
-      </c>
-      <c r="M6" s="7">
-        <v>287.25366666666667</v>
+        <v>44.608966666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6">
+        <f>(B6-B5)/B5</f>
+        <v>-2.0103794511744402E-2</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" ref="C8:H8" si="0">(C6-C5)/C5</f>
+        <v>-1.2192826781280671E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1868002382079477E-3</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.8143374010118748E-3</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>-3.6526213576500684E-3</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.10383430271555263</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B8:G8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -11896,7 +11718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355DA6D1-46FB-405D-9E3B-97A53E3CAB08}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -11952,13 +11774,13 @@
       <c r="A5" s="4">
         <v>4194304</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>12.056766666666665</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>7.7927999999999997</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
         <v>1.0530033333333333</v>
       </c>
     </row>
@@ -11966,13 +11788,13 @@
       <c r="A6" s="4">
         <v>8388608</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>21.897600000000001</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>15.957166666666666</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>4.3081799999999992</v>
       </c>
     </row>
@@ -11980,13 +11802,13 @@
       <c r="A7" s="4">
         <v>16777216</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>47.170366666666666</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>31.963733333333334</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7">
         <v>9.4587833333333347</v>
       </c>
     </row>
@@ -11994,13 +11816,13 @@
       <c r="A8" s="4">
         <v>33554432</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>91.037116666666662</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>61.824666666666673</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>20.292766666666669</v>
       </c>
     </row>
@@ -12008,13 +11830,13 @@
       <c r="A9" s="4">
         <v>67108864</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>182.73733333333334</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>133.0403</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9">
         <v>38.650466666666667</v>
       </c>
     </row>
@@ -12022,13 +11844,13 @@
       <c r="A10" s="4">
         <v>134217728</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>416.2115</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>257.87899999999996</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10">
         <v>74.795833333333334</v>
       </c>
     </row>
@@ -12036,13 +11858,13 @@
       <c r="A11" s="4">
         <v>268435456</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>709.89066666666668</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>507.36100000000005</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>152.79999999999998</v>
       </c>
     </row>
@@ -12050,13 +11872,13 @@
       <c r="A12" s="4">
         <v>536870912</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>1409.4475</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
         <v>986.56599999999992</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>313.77766666666668</v>
       </c>
     </row>
@@ -12068,10 +11890,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337051A0-667B-49AB-AF9F-EE7234F1BB9E}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12083,7 +11905,7 @@
     <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" customWidth="1"/>
     <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32.77734375" bestFit="1" customWidth="1"/>
@@ -12092,7 +11914,7 @@
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -12100,7 +11922,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -12108,7 +11930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -12127,168 +11949,213 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4194304</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>6.0613666666666672</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>0.76989866666666673</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
         <v>1.0011853333333334</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5">
         <v>0.80296533333333331</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5">
         <v>2.0202999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5" s="6">
+        <f>(E5 - F5) / F5</f>
+        <v>-0.60255143625534158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>8388608</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>10.903766666666668</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>3.0639066666666666</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>0.64841599999999999</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6">
         <v>4.0957866666666671</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6">
         <v>1.5635733333333335</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6" s="6">
+        <f t="shared" ref="H6:H12" si="0">(E6 - F6) / F6</f>
+        <v>1.6195040420233995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>16777216</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>21.437899999999999</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>6.1820033333333333</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7">
         <v>1.1675099999999998</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7">
         <v>8.155050000000001</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7">
         <v>3.1847273333333335</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>1.560674477417324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>33554432</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>45.074999999999996</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>12.4589</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>1.31325</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8">
         <v>16.694199999999999</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8">
         <v>4.7158933333333328</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5399867681485584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>67108864</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>87.075833333333335</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>26.593633333333333</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9">
         <v>1.62016</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9">
         <v>36.898366666666668</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9">
         <v>9.0486666666666675</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>3.0777683636631545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>134217728</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>179.78566666666666</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>57.737600000000008</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10">
         <v>2.8360099999999999</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10">
         <v>75.791133333333335</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10">
         <v>12.233699999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>5.1952748010277627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>268435456</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>358.73033333333336</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>112.56599999999999</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>4.6030533333333343</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11">
         <v>138.94933333333333</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11">
         <v>23.534366666666667</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>4.9041033609005833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>536870912</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>698.82566666666662</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
         <v>236.18699999999998</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>8.3436466666666664</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12">
         <v>287.25366666666667</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12">
         <v>44.608966666666667</v>
       </c>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>5.4393705600294107</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H5:H12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12296,10 +12163,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7923A28C-9BC4-451C-8BAF-2D36372056DA}">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="F135" sqref="F135"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15259,7 +15126,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B119" s="2">
@@ -15284,7 +15151,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B120" s="2">
@@ -15309,7 +15176,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B121" s="2">
@@ -15334,7 +15201,7 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
+      <c r="A122" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B122" s="2">
@@ -15359,7 +15226,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B123" s="2">
@@ -15384,7 +15251,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="6" t="s">
+      <c r="A124" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B124" s="2">
@@ -15409,7 +15276,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B125" s="2">
@@ -15434,7 +15301,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="6" t="s">
+      <c r="A126" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B126" s="2">
@@ -15459,7 +15326,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
+      <c r="A127" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B127" s="2">
@@ -15484,7 +15351,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
+      <c r="A128" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B128" s="2">
@@ -15509,7 +15376,7 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B129" s="2">
@@ -15534,7 +15401,7 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="6" t="s">
+      <c r="A130" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B130" s="2">
@@ -15559,7 +15426,7 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="6" t="s">
+      <c r="A131" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B131" s="2">
@@ -15584,7 +15451,7 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="6" t="s">
+      <c r="A132" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B132" s="2">
@@ -15609,7 +15476,7 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="6" t="s">
+      <c r="A133" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B133" s="2">
@@ -15634,7 +15501,7 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B134" s="2">
@@ -15657,9 +15524,6 @@
         <f t="shared" si="5"/>
         <v>0.6581973333333333</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A118">
